--- a/function.xlsx
+++ b/function.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\マイドライブ\東京都創業ステーション\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i_kum\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B0F519-20EC-4751-A390-89F92EA02E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{767FA9EE-B020-4A56-A364-C5C392FDEB6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" tabRatio="601" firstSheet="11" activeTab="11" xr2:uid="{DEA6B1E1-5B9C-4D63-A0A1-1F8A824C667E}"/>
+    <workbookView xWindow="9430" yWindow="1220" windowWidth="19400" windowHeight="10910" tabRatio="601" xr2:uid="{DEA6B1E1-5B9C-4D63-A0A1-1F8A824C667E}"/>
   </bookViews>
   <sheets>
     <sheet name="複合参照1" sheetId="6" r:id="rId1"/>
@@ -2568,6 +2568,21 @@
     <xf numFmtId="38" fontId="3" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2600,21 +2615,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="0" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2954,7 +2954,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
@@ -3064,11 +3064,11 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="43"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="48"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="4" t="s">
@@ -3117,31 +3117,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="44" t="s">
         <v>433</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="44" t="s">
         <v>434</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="44" t="s">
         <v>435</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="45" t="s">
         <v>436</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="45" t="s">
         <v>437</v>
       </c>
-      <c r="G1" s="55" t="s">
+      <c r="G1" s="44" t="s">
         <v>433</v>
       </c>
-      <c r="H1" s="55" t="s">
+      <c r="H1" s="44" t="s">
         <v>434</v>
       </c>
-      <c r="I1" s="55" t="s">
+      <c r="I1" s="44" t="s">
         <v>377</v>
       </c>
-      <c r="J1" s="55" t="s">
+      <c r="J1" s="44" t="s">
         <v>435</v>
       </c>
     </row>
@@ -3443,7 +3443,7 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
@@ -4043,22 +4043,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="42" t="s">
         <v>342</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="43" t="s">
         <v>429</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="42" t="s">
         <v>430</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="42" t="s">
         <v>431</v>
       </c>
-      <c r="E1" s="53" t="s">
+      <c r="E1" s="42" t="s">
         <v>432</v>
       </c>
-      <c r="F1" s="53" t="s">
+      <c r="F1" s="42" t="s">
         <v>341</v>
       </c>
     </row>
@@ -7633,10 +7633,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="41" t="s">
         <v>428</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="41" t="s">
         <v>383</v>
       </c>
       <c r="D1" s="14" t="s">
@@ -7847,28 +7847,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="44" t="s">
         <v>433</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="44" t="s">
         <v>434</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="44" t="s">
         <v>435</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="45" t="s">
         <v>436</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="45" t="s">
         <v>437</v>
       </c>
-      <c r="G1" s="55" t="s">
+      <c r="G1" s="44" t="s">
         <v>433</v>
       </c>
-      <c r="H1" s="55" t="s">
+      <c r="H1" s="44" t="s">
         <v>434</v>
       </c>
-      <c r="I1" s="55" t="s">
+      <c r="I1" s="44" t="s">
         <v>435</v>
       </c>
     </row>
@@ -8046,18 +8046,18 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="C1" s="7"/>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="46"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="51"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="46"/>
+      <c r="B2" s="51"/>
       <c r="D2" s="9" t="s">
         <v>20</v>
       </c>
@@ -8266,10 +8266,10 @@
       <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="47"/>
+      <c r="B5" s="52"/>
       <c r="C5" s="16">
         <f>SUM(C2:C4)</f>
         <v>1443309</v>
@@ -8316,10 +8316,10 @@
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="47"/>
+      <c r="B9" s="52"/>
       <c r="C9" s="16">
         <f>SUM(C6:C8)</f>
         <v>1905002</v>
@@ -8366,10 +8366,10 @@
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="47"/>
+      <c r="B13" s="52"/>
       <c r="C13" s="16">
         <f>SUM(C10:C12)</f>
         <v>1023253</v>
@@ -8416,10 +8416,10 @@
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" ht="18.5" thickBot="1">
-      <c r="A17" s="48" t="s">
+      <c r="A17" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="48"/>
+      <c r="B17" s="53"/>
       <c r="C17" s="17">
         <f>SUM(C14:C16)</f>
         <v>3244700</v>
@@ -8430,10 +8430,10 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="18.5" thickTop="1">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="49"/>
+      <c r="B18" s="54"/>
       <c r="C18" s="18">
         <f>SUM(C5,C9,C13,C17)</f>
         <v>7616264</v>
@@ -8566,10 +8566,10 @@
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="47"/>
+      <c r="B5" s="52"/>
       <c r="C5" s="16">
         <f>SUBTOTAL(9,C2:C4)</f>
         <v>1443309</v>
@@ -8578,10 +8578,10 @@
         <f>SUBTOTAL(1,C2:C4)</f>
         <v>481103</v>
       </c>
-      <c r="F5" s="47" t="s">
+      <c r="F5" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="47"/>
+      <c r="G5" s="52"/>
       <c r="H5" s="16">
         <f>SUBTOTAL(109,H2:H4)</f>
         <v>1443309</v>
@@ -8658,10 +8658,10 @@
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="47"/>
+      <c r="B9" s="52"/>
       <c r="C9" s="16">
         <f>SUBTOTAL(9,C6:C8)</f>
         <v>1905002</v>
@@ -8670,10 +8670,10 @@
         <f>SUBTOTAL(1,C6:C8)</f>
         <v>635000.66666666663</v>
       </c>
-      <c r="F9" s="47" t="s">
+      <c r="F9" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="47"/>
+      <c r="G9" s="52"/>
       <c r="H9" s="16">
         <f>SUBTOTAL(109,H6:H8)</f>
         <v>1905002</v>
@@ -8750,10 +8750,10 @@
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="47"/>
+      <c r="B13" s="52"/>
       <c r="C13" s="16">
         <f>SUBTOTAL(9,C10:C12)</f>
         <v>1023253</v>
@@ -8762,10 +8762,10 @@
         <f>SUBTOTAL(1,C10:C12)</f>
         <v>341084.33333333331</v>
       </c>
-      <c r="F13" s="47" t="s">
+      <c r="F13" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="47"/>
+      <c r="G13" s="52"/>
       <c r="H13" s="16">
         <f>SUBTOTAL(109,H10:H12)</f>
         <v>1023253</v>
@@ -8842,10 +8842,10 @@
       <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:9" ht="18.5" thickBot="1">
-      <c r="A17" s="48" t="s">
+      <c r="A17" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="48"/>
+      <c r="B17" s="53"/>
       <c r="C17" s="17">
         <f>SUBTOTAL(9,C14:C16)</f>
         <v>3244700</v>
@@ -8854,10 +8854,10 @@
         <f>SUBTOTAL(1,C14:C16)</f>
         <v>1081566.6666666667</v>
       </c>
-      <c r="F17" s="48" t="s">
+      <c r="F17" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="48"/>
+      <c r="G17" s="53"/>
       <c r="H17" s="17">
         <f>SUBTOTAL(109,H14:H16)</f>
         <v>3244700</v>
@@ -8868,10 +8868,10 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="18.5" thickTop="1">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="49"/>
+      <c r="B18" s="54"/>
       <c r="C18" s="18">
         <f>SUBTOTAL(9,C2:C17)</f>
         <v>7616264</v>
@@ -8880,10 +8880,10 @@
         <f>SUBTOTAL(1,C2:C17)</f>
         <v>634688.66666666663</v>
       </c>
-      <c r="F18" s="49" t="s">
+      <c r="F18" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="G18" s="49"/>
+      <c r="G18" s="54"/>
       <c r="H18" s="18">
         <f>SUBTOTAL(109,H2:H17)</f>
         <v>7616264</v>
@@ -8903,16 +8903,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -43553,7 +43553,7 @@
       <c r="E1" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="50"/>
+      <c r="G1" s="55"/>
       <c r="H1" s="24">
         <v>40</v>
       </c>
@@ -43583,7 +43583,7 @@
       <c r="E2" s="3">
         <v>45082</v>
       </c>
-      <c r="G2" s="51"/>
+      <c r="G2" s="56"/>
       <c r="H2" s="26" t="s">
         <v>72</v>
       </c>

--- a/function.xlsx
+++ b/function.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i_kum\Downloads\excel_function_for_beginner\excel_function_for_beginner\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i_kum\Downloads\excel_function_for_beginner-main\excel_function_for_beginner-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A3722B-9A28-4C55-83C9-136BC81EB9CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E646E51-145F-42F5-96D1-130E3FB9492F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9410" yWindow="1190" windowWidth="19400" windowHeight="10910" tabRatio="601" xr2:uid="{DEA6B1E1-5B9C-4D63-A0A1-1F8A824C667E}"/>
+    <workbookView xWindow="9410" yWindow="3560" windowWidth="19400" windowHeight="10950" tabRatio="601" xr2:uid="{DEA6B1E1-5B9C-4D63-A0A1-1F8A824C667E}"/>
   </bookViews>
   <sheets>
     <sheet name="複合参照1" sheetId="6" r:id="rId1"/>
@@ -767,9 +767,6 @@
   </si>
   <si>
     <t>=SUMIF(A:A,"&gt;=2024/12/1",E:E)</t>
-  </si>
-  <si>
-    <t>=SUMIF(A:A,"&lt;&gt;一般検診",E:E)</t>
   </si>
   <si>
     <t>=SUMIF(D:D,G2,E:E)</t>
@@ -2417,6 +2414,10 @@
   <si>
     <t>=IF(B8&lt;=5,1,IF(B8=6,1.25,1.35))</t>
   </si>
+  <si>
+    <t>=SUMIF(D:D,"&lt;&gt;一般診察",E:E)</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -3404,27 +3405,27 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="41" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C1" s="46" t="s">
+        <v>445</v>
+      </c>
+      <c r="D1" s="46" t="s">
         <v>446</v>
       </c>
-      <c r="D1" s="46" t="s">
-        <v>447</v>
-      </c>
       <c r="E1" s="41" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="47" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C2" s="9">
         <v>10000</v>
@@ -3434,15 +3435,15 @@
         <v>1000</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="14" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C3" s="9">
         <v>10000</v>
@@ -3452,15 +3453,15 @@
         <v>100</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="47" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C4" s="3">
         <v>5000</v>
@@ -3470,15 +3471,15 @@
         <v>50</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="47" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C5" s="9">
         <v>10000</v>
@@ -3488,15 +3489,15 @@
         <v>100</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="47" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C6" s="3">
         <v>5000</v>
@@ -3506,15 +3507,15 @@
         <v>50</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="14" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C7" s="3">
         <v>5000</v>
@@ -3524,15 +3525,15 @@
         <v>50</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="14" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C8" s="9">
         <v>10000</v>
@@ -3542,15 +3543,15 @@
         <v>100</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="14" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C9" s="3">
         <v>5000</v>
@@ -3560,7 +3561,7 @@
         <v>50</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
   </sheetData>
@@ -3587,30 +3588,30 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="41" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C1" s="46" t="s">
+        <v>445</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>447</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>456</v>
+      </c>
+      <c r="F1" s="46" t="s">
         <v>446</v>
-      </c>
-      <c r="D1" s="41" t="s">
-        <v>448</v>
-      </c>
-      <c r="E1" s="41" t="s">
-        <v>457</v>
-      </c>
-      <c r="F1" s="46" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="47" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C2" s="9">
         <v>10000</v>
@@ -3630,10 +3631,10 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="14" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C3" s="9">
         <v>10000</v>
@@ -3653,10 +3654,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="47" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C4" s="3">
         <v>5000</v>
@@ -3676,10 +3677,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="47" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C5" s="9">
         <v>10000</v>
@@ -3699,10 +3700,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="47" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C6" s="3">
         <v>5000</v>
@@ -3722,10 +3723,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="14" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C7" s="3">
         <v>5000</v>
@@ -3745,10 +3746,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="14" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C8" s="9">
         <v>10000</v>
@@ -3768,10 +3769,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="14" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C9" s="3">
         <v>5000</v>
@@ -3810,25 +3811,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="50" t="s">
+        <v>481</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>487</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3856,7 +3857,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3884,7 +3885,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3912,7 +3913,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3940,7 +3941,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3968,7 +3969,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -3996,7 +3997,7 @@
         <v>1.25</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4024,7 +4025,7 @@
         <v>1.35</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
   </sheetData>
@@ -4096,7 +4097,7 @@
         <v>6752223</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -4123,7 +4124,7 @@
         <v>7553319</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -4150,7 +4151,7 @@
         <v>7012536</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -4177,7 +4178,7 @@
         <v>8185832</v>
       </c>
       <c r="I5" s="32" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -4204,7 +4205,7 @@
         <v>6996551</v>
       </c>
       <c r="I6" s="32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -4231,7 +4232,7 @@
         <v>7138172</v>
       </c>
       <c r="I7" s="32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18.5" thickBot="1">
@@ -4258,7 +4259,7 @@
         <v>6768791</v>
       </c>
       <c r="I8" s="32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18.5" thickTop="1">
@@ -4285,7 +4286,7 @@
         <v>29503910</v>
       </c>
       <c r="I9" s="32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -4312,7 +4313,7 @@
         <v>14134723</v>
       </c>
       <c r="I10" s="32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -4407,11 +4408,11 @@
         <v>85</v>
       </c>
       <c r="H14" s="3">
-        <f>SUMIF(A:A,"&lt;&gt;一般検診",E:E)</f>
-        <v>50407424</v>
+        <f>SUMIF(D:D,"&lt;&gt;一般診察",E:E)</f>
+        <v>43269252</v>
       </c>
       <c r="I14" s="32" t="s">
-        <v>88</v>
+        <v>495</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -4438,7 +4439,7 @@
         <v>4380703</v>
       </c>
       <c r="I15" s="32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -72469,36 +72470,36 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="33" t="s">
-        <v>100</v>
-      </c>
       <c r="C1" s="33" t="s">
+        <v>333</v>
+      </c>
+      <c r="D1" s="33" t="s">
         <v>334</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="E1" s="33" t="s">
         <v>335</v>
       </c>
-      <c r="E1" s="33" t="s">
-        <v>336</v>
-      </c>
       <c r="G1" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="H1" s="34" t="s">
-        <v>100</v>
-      </c>
       <c r="I1" s="34" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="14" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C2" s="14">
         <v>120</v>
@@ -72512,10 +72513,10 @@
         <v>120</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I2" s="14">
         <v>900</v>
@@ -72523,10 +72524,10 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="14" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C3" s="14">
         <v>250</v>
@@ -72540,10 +72541,10 @@
         <v>0</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I3" s="14">
         <v>320</v>
@@ -72551,10 +72552,10 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="14" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C4" s="14">
         <v>350</v>
@@ -72568,10 +72569,10 @@
         <v>700</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I4" s="14">
         <v>220</v>
@@ -72579,10 +72580,10 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C5" s="14">
         <v>500</v>
@@ -72596,10 +72597,10 @@
         <v>500</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I5" s="14">
         <v>1050</v>
@@ -72607,10 +72608,10 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="14" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C6" s="14">
         <v>150</v>
@@ -72624,10 +72625,10 @@
         <v>150</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I6" s="14">
         <v>1800</v>
@@ -72635,10 +72636,10 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="14" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C7" s="14">
         <v>400</v>
@@ -72652,10 +72653,10 @@
         <v>400</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I7" s="14">
         <v>800</v>
@@ -72663,10 +72664,10 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="14" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C8" s="14">
         <v>180</v>
@@ -72680,10 +72681,10 @@
         <v>0</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I8" s="14">
         <v>180</v>
@@ -72691,10 +72692,10 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="14" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C9" s="14">
         <v>300</v>
@@ -72708,10 +72709,10 @@
         <v>#N/A</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I9" s="14">
         <v>300</v>
@@ -72719,10 +72720,10 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="14" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C10" s="14">
         <v>200</v>
@@ -72736,10 +72737,10 @@
         <v>0</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I10" s="14">
         <v>230</v>
@@ -72747,10 +72748,10 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="14" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C11" s="14">
         <v>130</v>
@@ -72764,10 +72765,10 @@
         <v>260</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I11" s="14">
         <v>250</v>
@@ -72775,10 +72776,10 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C12" s="14">
         <v>280</v>
@@ -72792,10 +72793,10 @@
         <v>280</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I12" s="14">
         <v>140</v>
@@ -72803,10 +72804,10 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="14" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C13" s="14">
         <v>220</v>
@@ -72820,10 +72821,10 @@
         <v>0</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I13" s="14">
         <v>390</v>
@@ -72831,10 +72832,10 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="14" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C14" s="14">
         <v>250</v>
@@ -72848,10 +72849,10 @@
         <v>500</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I14" s="14">
         <v>180</v>
@@ -72859,10 +72860,10 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="14" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C15" s="14">
         <v>180</v>
@@ -72876,10 +72877,10 @@
         <v>180</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I15" s="14">
         <v>200</v>
@@ -72887,10 +72888,10 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="14" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C16" s="14">
         <v>160</v>
@@ -72904,10 +72905,10 @@
         <v>160</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I16" s="14">
         <v>350</v>
@@ -72915,10 +72916,10 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="14" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C17" s="14">
         <v>140</v>
@@ -72932,10 +72933,10 @@
         <v>0</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I17" s="14">
         <v>1000</v>
@@ -72943,10 +72944,10 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="14" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C18" s="14">
         <v>300</v>
@@ -72960,10 +72961,10 @@
         <v>600</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I18" s="14">
         <v>360</v>
@@ -72971,10 +72972,10 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C19" s="14">
         <v>230</v>
@@ -72988,10 +72989,10 @@
         <v>0</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I19" s="14">
         <v>750</v>
@@ -72999,10 +73000,10 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="14" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C20" s="14">
         <v>400</v>
@@ -73016,10 +73017,10 @@
         <v>#N/A</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I20" s="14">
         <v>240</v>
@@ -73027,10 +73028,10 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="14" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C21" s="14">
         <v>350</v>
@@ -73044,10 +73045,10 @@
         <v>700</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I21" s="14">
         <v>1050</v>
@@ -73055,10 +73056,10 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="14" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C22" s="14">
         <v>180</v>
@@ -73072,10 +73073,10 @@
         <v>0</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I22" s="14">
         <v>560</v>
@@ -73083,10 +73084,10 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="14" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C23" s="14">
         <v>350</v>
@@ -73102,10 +73103,10 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="14" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C24" s="14">
         <v>600</v>
@@ -73142,36 +73143,36 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="44" t="s">
+        <v>432</v>
+      </c>
+      <c r="B1" s="44" t="s">
         <v>433</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="C1" s="44" t="s">
         <v>434</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="D1" s="45" t="s">
         <v>435</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="E1" s="45" t="s">
         <v>436</v>
       </c>
-      <c r="E1" s="45" t="s">
-        <v>437</v>
-      </c>
       <c r="G1" s="44" t="s">
+        <v>432</v>
+      </c>
+      <c r="H1" s="44" t="s">
         <v>433</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="I1" s="44" t="s">
+        <v>376</v>
+      </c>
+      <c r="J1" s="44" t="s">
         <v>434</v>
-      </c>
-      <c r="I1" s="44" t="s">
-        <v>377</v>
-      </c>
-      <c r="J1" s="44" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="14" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B2" s="14">
         <v>200</v>
@@ -73188,7 +73189,7 @@
         <v>7500</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H2" s="14">
         <v>200</v>
@@ -73220,7 +73221,7 @@
         <v>16000</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H3" s="14">
         <v>300</v>
@@ -73235,7 +73236,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="14" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B4" s="14">
         <v>400</v>
@@ -73252,7 +73253,7 @@
         <v>29400</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H4" s="14">
         <v>400</v>
@@ -73312,7 +73313,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="G8" s="14" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H8" s="14">
         <v>200</v>
@@ -73327,7 +73328,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="G9" s="14" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H9" s="14">
         <v>300</v>
@@ -73342,7 +73343,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="G10" s="14" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H10" s="14">
         <v>400</v>
@@ -73382,36 +73383,36 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="33" t="s">
-        <v>100</v>
-      </c>
       <c r="C1" s="33" t="s">
+        <v>333</v>
+      </c>
+      <c r="D1" s="33" t="s">
         <v>334</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="E1" s="33" t="s">
         <v>335</v>
       </c>
-      <c r="E1" s="33" t="s">
-        <v>336</v>
-      </c>
       <c r="G1" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="H1" s="34" t="s">
-        <v>100</v>
-      </c>
       <c r="I1" s="34" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="14" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C2" s="14">
         <v>120</v>
@@ -73425,10 +73426,10 @@
         <v>780</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I2" s="14">
         <v>900</v>
@@ -73436,10 +73437,10 @@
     </row>
     <row r="3" spans="1:9">
       <c r="G3" s="14" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I3" s="14">
         <v>9000</v>
@@ -73447,10 +73448,10 @@
     </row>
     <row r="4" spans="1:9">
       <c r="G4" s="14" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I4" s="14">
         <v>90000</v>
@@ -73478,25 +73479,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>359</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="C1" s="19" t="s">
         <v>360</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="D1" s="37" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>340</v>
+      </c>
+      <c r="F1" s="37" t="s">
         <v>361</v>
       </c>
-      <c r="D1" s="37" t="s">
-        <v>343</v>
-      </c>
-      <c r="E1" s="37" t="s">
-        <v>341</v>
-      </c>
-      <c r="F1" s="37" t="s">
+      <c r="G1" s="19" t="s">
         <v>362</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -74068,27 +74069,27 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="42" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B1" s="43" t="s">
+        <v>428</v>
+      </c>
+      <c r="C1" s="42" t="s">
         <v>429</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="D1" s="42" t="s">
         <v>430</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="E1" s="42" t="s">
         <v>431</v>
       </c>
-      <c r="E1" s="42" t="s">
-        <v>432</v>
-      </c>
       <c r="F1" s="42" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B2" s="36">
         <v>0.33333333333333331</v>
@@ -74097,18 +74098,18 @@
         <v>1001</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F2" s="35" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B3" s="36">
         <v>0.33333333333333331</v>
@@ -74117,18 +74118,18 @@
         <v>1003</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F3" s="35" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B4" s="36">
         <v>0.33333333333333331</v>
@@ -74137,18 +74138,18 @@
         <v>1004</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="35" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B5" s="36">
         <v>0.33333333333333331</v>
@@ -74157,18 +74158,18 @@
         <v>1005</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F5" s="35" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B6" s="36">
         <v>0.33333333333333331</v>
@@ -74177,18 +74178,18 @@
         <v>1006</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F6" s="35" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B7" s="36">
         <v>0.33333333333333331</v>
@@ -74197,18 +74198,18 @@
         <v>1007</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F7" s="35" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B8" s="36">
         <v>0.33333333333333331</v>
@@ -74217,18 +74218,18 @@
         <v>1008</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F8" s="35" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B9" s="36">
         <v>0.33333333333333331</v>
@@ -74237,18 +74238,18 @@
         <v>1009</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F9" s="35" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B10" s="36">
         <v>0.33333333333333331</v>
@@ -74257,18 +74258,18 @@
         <v>1011</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F10" s="35" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="35" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B11" s="36">
         <v>0.33333333333333331</v>
@@ -74277,18 +74278,18 @@
         <v>1012</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E11" s="35" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F11" s="35" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="35" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B12" s="36">
         <v>0.33333333333333331</v>
@@ -74297,18 +74298,18 @@
         <v>1013</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E12" s="35" t="s">
+        <v>337</v>
+      </c>
+      <c r="F12" s="35" t="s">
         <v>338</v>
-      </c>
-      <c r="F12" s="35" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B13" s="36">
         <v>0.33333333333333331</v>
@@ -74317,18 +74318,18 @@
         <v>1015</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E13" s="35" t="s">
+        <v>337</v>
+      </c>
+      <c r="F13" s="35" t="s">
         <v>338</v>
-      </c>
-      <c r="F13" s="35" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="35" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B14" s="36">
         <v>0.33333333333333331</v>
@@ -74337,18 +74338,18 @@
         <v>1017</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E14" s="35" t="s">
+        <v>337</v>
+      </c>
+      <c r="F14" s="35" t="s">
         <v>338</v>
-      </c>
-      <c r="F14" s="35" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B15" s="36">
         <v>0.33333333333333331</v>
@@ -74357,18 +74358,18 @@
         <v>1018</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E15" s="35" t="s">
+        <v>337</v>
+      </c>
+      <c r="F15" s="35" t="s">
         <v>338</v>
-      </c>
-      <c r="F15" s="35" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="35" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B16" s="36">
         <v>0.33333333333333331</v>
@@ -74377,18 +74378,18 @@
         <v>1019</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E16" s="35" t="s">
+        <v>337</v>
+      </c>
+      <c r="F16" s="35" t="s">
         <v>338</v>
-      </c>
-      <c r="F16" s="35" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B17" s="36">
         <v>0.33333333333333331</v>
@@ -74397,18 +74398,18 @@
         <v>1024</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E17" s="35" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F17" s="35" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="35" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B18" s="36">
         <v>0.33333333333333331</v>
@@ -74417,18 +74418,18 @@
         <v>1025</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E18" s="35" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F18" s="35" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="35" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B19" s="36">
         <v>0.33333333333333331</v>
@@ -74437,18 +74438,18 @@
         <v>1026</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E19" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F19" s="35" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="35" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B20" s="36">
         <v>0.33333333333333331</v>
@@ -74457,18 +74458,18 @@
         <v>1027</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E20" s="35" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F20" s="35" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="35" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B21" s="36">
         <v>0.33333333333333331</v>
@@ -74477,18 +74478,18 @@
         <v>1031</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E21" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F21" s="35" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="35" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B22" s="36">
         <v>0.33333333333333331</v>
@@ -74497,18 +74498,18 @@
         <v>1032</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E22" s="35" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F22" s="35" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="35" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B23" s="36">
         <v>0.33333333333333331</v>
@@ -74517,18 +74518,18 @@
         <v>1033</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E23" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F23" s="35" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="35" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B24" s="36">
         <v>0.33333333333333331</v>
@@ -74537,18 +74538,18 @@
         <v>1034</v>
       </c>
       <c r="D24" s="35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E24" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F24" s="35" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="35" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B25" s="36">
         <v>0.33333333333333331</v>
@@ -74557,18 +74558,18 @@
         <v>1035</v>
       </c>
       <c r="D25" s="35" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E25" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F25" s="35" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="35" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B26" s="36">
         <v>0.33333333333333331</v>
@@ -74577,18 +74578,18 @@
         <v>1036</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E26" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F26" s="35" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="35" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B27" s="36">
         <v>0.33333333333333331</v>
@@ -74597,18 +74598,18 @@
         <v>1039</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E27" s="35" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F27" s="35" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="35" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B28" s="36">
         <v>0.33333333333333331</v>
@@ -74617,18 +74618,18 @@
         <v>1040</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E28" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F28" s="35" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="35" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B29" s="36">
         <v>0.33333333333333331</v>
@@ -74637,18 +74638,18 @@
         <v>1041</v>
       </c>
       <c r="D29" s="35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E29" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F29" s="35" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="35" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B30" s="36">
         <v>0.33333333333333331</v>
@@ -74657,18 +74658,18 @@
         <v>1042</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E30" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F30" s="35" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="35" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B31" s="36">
         <v>0.33333333333333331</v>
@@ -74677,18 +74678,18 @@
         <v>1043</v>
       </c>
       <c r="D31" s="35" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E31" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F31" s="35" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="35" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B32" s="36">
         <v>0.33333333333333331</v>
@@ -74697,18 +74698,18 @@
         <v>1044</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E32" s="35" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F32" s="35" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="35" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B33" s="36">
         <v>0.33333333333333331</v>
@@ -74717,18 +74718,18 @@
         <v>1045</v>
       </c>
       <c r="D33" s="35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E33" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F33" s="35" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="35" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B34" s="36">
         <v>0.33333333333333331</v>
@@ -74737,18 +74738,18 @@
         <v>1046</v>
       </c>
       <c r="D34" s="35" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E34" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F34" s="35" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="35" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B35" s="36">
         <v>0.33333333333333331</v>
@@ -74757,18 +74758,18 @@
         <v>1047</v>
       </c>
       <c r="D35" s="35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E35" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F35" s="35" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B36" s="36">
         <v>0.33333333333333331</v>
@@ -74777,18 +74778,18 @@
         <v>1048</v>
       </c>
       <c r="D36" s="35" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E36" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F36" s="35" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="35" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B37" s="36">
         <v>0.33333333333333331</v>
@@ -74797,18 +74798,18 @@
         <v>1049</v>
       </c>
       <c r="D37" s="35" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E37" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F37" s="35" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="35" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B38" s="36">
         <v>0.33333333333333331</v>
@@ -74817,18 +74818,18 @@
         <v>1050</v>
       </c>
       <c r="D38" s="35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E38" s="35" t="s">
+        <v>337</v>
+      </c>
+      <c r="F38" s="35" t="s">
         <v>338</v>
-      </c>
-      <c r="F38" s="35" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="35" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B39" s="36">
         <v>0.33333333333333331</v>
@@ -74837,18 +74838,18 @@
         <v>1051</v>
       </c>
       <c r="D39" s="35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E39" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F39" s="35" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="35" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B40" s="36">
         <v>0.33333333333333331</v>
@@ -74857,18 +74858,18 @@
         <v>1053</v>
       </c>
       <c r="D40" s="35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E40" s="35" t="s">
+        <v>337</v>
+      </c>
+      <c r="F40" s="35" t="s">
         <v>338</v>
-      </c>
-      <c r="F40" s="35" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B41" s="36">
         <v>0.33333333333333331</v>
@@ -74877,18 +74878,18 @@
         <v>1054</v>
       </c>
       <c r="D41" s="35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E41" s="35" t="s">
+        <v>337</v>
+      </c>
+      <c r="F41" s="35" t="s">
         <v>338</v>
-      </c>
-      <c r="F41" s="35" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="35" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B42" s="36">
         <v>0.33333333333333331</v>
@@ -74897,18 +74898,18 @@
         <v>1055</v>
       </c>
       <c r="D42" s="35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E42" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F42" s="35" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="35" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B43" s="36">
         <v>0.33333333333333331</v>
@@ -74917,18 +74918,18 @@
         <v>1056</v>
       </c>
       <c r="D43" s="35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E43" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F43" s="35" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="35" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B44" s="36">
         <v>0.33333333333333331</v>
@@ -74937,18 +74938,18 @@
         <v>1057</v>
       </c>
       <c r="D44" s="35" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E44" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F44" s="35" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="35" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B45" s="36">
         <v>0.33333333333333331</v>
@@ -74957,18 +74958,18 @@
         <v>1058</v>
       </c>
       <c r="D45" s="35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E45" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F45" s="35" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="35" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B46" s="36">
         <v>0.33333333333333331</v>
@@ -74977,18 +74978,18 @@
         <v>1059</v>
       </c>
       <c r="D46" s="35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E46" s="35" t="s">
+        <v>337</v>
+      </c>
+      <c r="F46" s="35" t="s">
         <v>338</v>
-      </c>
-      <c r="F46" s="35" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="35" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B47" s="36">
         <v>0.33333333333333331</v>
@@ -74997,18 +74998,18 @@
         <v>1060</v>
       </c>
       <c r="D47" s="35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E47" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F47" s="35" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="35" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B48" s="36">
         <v>0.25</v>
@@ -75017,18 +75018,18 @@
         <v>1061</v>
       </c>
       <c r="D48" s="35" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E48" s="35" t="s">
+        <v>337</v>
+      </c>
+      <c r="F48" s="35" t="s">
         <v>338</v>
-      </c>
-      <c r="F48" s="35" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B49" s="36">
         <v>0.33333333333333331</v>
@@ -75037,18 +75038,18 @@
         <v>1062</v>
       </c>
       <c r="D49" s="35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E49" s="35" t="s">
+        <v>337</v>
+      </c>
+      <c r="F49" s="35" t="s">
         <v>338</v>
-      </c>
-      <c r="F49" s="35" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="35" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B50" s="36">
         <v>0.33333333333333331</v>
@@ -75057,18 +75058,18 @@
         <v>1063</v>
       </c>
       <c r="D50" s="35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E50" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F50" s="35" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="35" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B51" s="36">
         <v>0.33333333333333331</v>
@@ -75077,18 +75078,18 @@
         <v>1064</v>
       </c>
       <c r="D51" s="35" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E51" s="35" t="s">
+        <v>337</v>
+      </c>
+      <c r="F51" s="35" t="s">
         <v>338</v>
-      </c>
-      <c r="F51" s="35" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="35" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B52" s="36">
         <v>0.33333333333333331</v>
@@ -75097,18 +75098,18 @@
         <v>1065</v>
       </c>
       <c r="D52" s="35" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E52" s="35" t="s">
+        <v>337</v>
+      </c>
+      <c r="F52" s="35" t="s">
         <v>338</v>
-      </c>
-      <c r="F52" s="35" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="35" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B53" s="36">
         <v>0.20833333333333334</v>
@@ -75117,18 +75118,18 @@
         <v>1066</v>
       </c>
       <c r="D53" s="35" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E53" s="35" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F53" s="35" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="35" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B54" s="36">
         <v>0.33333333333333331</v>
@@ -75137,18 +75138,18 @@
         <v>1067</v>
       </c>
       <c r="D54" s="35" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E54" s="35" t="s">
+        <v>337</v>
+      </c>
+      <c r="F54" s="35" t="s">
         <v>338</v>
-      </c>
-      <c r="F54" s="35" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="35" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B55" s="36">
         <v>0.33333333333333331</v>
@@ -75157,18 +75158,18 @@
         <v>1068</v>
       </c>
       <c r="D55" s="35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E55" s="35" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F55" s="35" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="35" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B56" s="36">
         <v>0.33333333333333331</v>
@@ -75177,18 +75178,18 @@
         <v>1069</v>
       </c>
       <c r="D56" s="35" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E56" s="35" t="s">
+        <v>337</v>
+      </c>
+      <c r="F56" s="35" t="s">
         <v>338</v>
-      </c>
-      <c r="F56" s="35" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B57" s="36">
         <v>0.33333333333333331</v>
@@ -75197,18 +75198,18 @@
         <v>1070</v>
       </c>
       <c r="D57" s="35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E57" s="35" t="s">
+        <v>337</v>
+      </c>
+      <c r="F57" s="35" t="s">
         <v>338</v>
-      </c>
-      <c r="F57" s="35" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="35" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B58" s="36">
         <v>0.33333333333333331</v>
@@ -75217,18 +75218,18 @@
         <v>1071</v>
       </c>
       <c r="D58" s="35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E58" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F58" s="35" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="35" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B59" s="36">
         <v>0.33333333333333331</v>
@@ -75237,18 +75238,18 @@
         <v>1072</v>
       </c>
       <c r="D59" s="35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E59" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F59" s="35" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="35" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B60" s="36">
         <v>0.33333333333333331</v>
@@ -75257,18 +75258,18 @@
         <v>1073</v>
       </c>
       <c r="D60" s="35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E60" s="35" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F60" s="35" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B61" s="36">
         <v>0.33333333333333331</v>
@@ -75277,18 +75278,18 @@
         <v>1074</v>
       </c>
       <c r="D61" s="35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E61" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F61" s="35" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B62" s="36">
         <v>0.33333333333333331</v>
@@ -75297,18 +75298,18 @@
         <v>1075</v>
       </c>
       <c r="D62" s="35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E62" s="35" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F62" s="35" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B63" s="36">
         <v>0.33333333333333331</v>
@@ -75317,18 +75318,18 @@
         <v>1076</v>
       </c>
       <c r="D63" s="35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E63" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F63" s="35" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="35" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B64" s="36">
         <v>0.33333333333333331</v>
@@ -75337,18 +75338,18 @@
         <v>1077</v>
       </c>
       <c r="D64" s="35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E64" s="35" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F64" s="35" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="35" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B65" s="36">
         <v>0.33333333333333331</v>
@@ -75357,18 +75358,18 @@
         <v>1078</v>
       </c>
       <c r="D65" s="35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E65" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F65" s="35" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="35" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B66" s="36">
         <v>0.33333333333333331</v>
@@ -75377,18 +75378,18 @@
         <v>1079</v>
       </c>
       <c r="D66" s="35" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E66" s="35" t="s">
+        <v>337</v>
+      </c>
+      <c r="F66" s="35" t="s">
         <v>338</v>
-      </c>
-      <c r="F66" s="35" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="35" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B67" s="36">
         <v>0.33333333333333331</v>
@@ -75397,18 +75398,18 @@
         <v>1080</v>
       </c>
       <c r="D67" s="35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E67" s="35" t="s">
+        <v>337</v>
+      </c>
+      <c r="F67" s="35" t="s">
         <v>338</v>
-      </c>
-      <c r="F67" s="35" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="35" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B68" s="36">
         <v>0.33333333333333331</v>
@@ -75417,18 +75418,18 @@
         <v>1081</v>
       </c>
       <c r="D68" s="35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E68" s="35" t="s">
+        <v>337</v>
+      </c>
+      <c r="F68" s="35" t="s">
         <v>338</v>
-      </c>
-      <c r="F68" s="35" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="35" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B69" s="36">
         <v>0.33333333333333331</v>
@@ -75437,18 +75438,18 @@
         <v>1082</v>
       </c>
       <c r="D69" s="35" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E69" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F69" s="35" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="35" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B70" s="36">
         <v>0.33333333333333331</v>
@@ -75457,18 +75458,18 @@
         <v>1083</v>
       </c>
       <c r="D70" s="35" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E70" s="35" t="s">
+        <v>337</v>
+      </c>
+      <c r="F70" s="35" t="s">
         <v>338</v>
-      </c>
-      <c r="F70" s="35" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="35" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B71" s="36">
         <v>0.27083333333333331</v>
@@ -75477,18 +75478,18 @@
         <v>1084</v>
       </c>
       <c r="D71" s="35" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E71" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F71" s="35" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="35" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B72" s="36">
         <v>0.33333333333333331</v>
@@ -75497,18 +75498,18 @@
         <v>1085</v>
       </c>
       <c r="D72" s="35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E72" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F72" s="35" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="35" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B73" s="36">
         <v>0.33333333333333331</v>
@@ -75517,18 +75518,18 @@
         <v>1086</v>
       </c>
       <c r="D73" s="35" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E73" s="35" t="s">
+        <v>337</v>
+      </c>
+      <c r="F73" s="35" t="s">
         <v>338</v>
-      </c>
-      <c r="F73" s="35" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="35" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B74" s="36">
         <v>0.33333333333333331</v>
@@ -75537,18 +75538,18 @@
         <v>1087</v>
       </c>
       <c r="D74" s="35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E74" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F74" s="35" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="35" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B75" s="36">
         <v>0.33333333333333331</v>
@@ -75557,18 +75558,18 @@
         <v>1088</v>
       </c>
       <c r="D75" s="35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E75" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F75" s="35" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="35" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B76" s="36">
         <v>0.33333333333333331</v>
@@ -75577,18 +75578,18 @@
         <v>1089</v>
       </c>
       <c r="D76" s="35" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E76" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F76" s="35" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="35" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B77" s="36">
         <v>0.33333333333333331</v>
@@ -75597,18 +75598,18 @@
         <v>1090</v>
       </c>
       <c r="D77" s="35" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E77" s="35" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F77" s="35" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="35" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B78" s="36">
         <v>0.33333333333333331</v>
@@ -75617,18 +75618,18 @@
         <v>1092</v>
       </c>
       <c r="D78" s="35" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E78" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F78" s="35" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="35" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B79" s="36">
         <v>0.33333333333333331</v>
@@ -75637,18 +75638,18 @@
         <v>1093</v>
       </c>
       <c r="D79" s="35" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E79" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F79" s="35" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="35" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B80" s="36">
         <v>0.33333333333333331</v>
@@ -75657,18 +75658,18 @@
         <v>1094</v>
       </c>
       <c r="D80" s="35" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E80" s="35" t="s">
+        <v>337</v>
+      </c>
+      <c r="F80" s="35" t="s">
         <v>338</v>
-      </c>
-      <c r="F80" s="35" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="35" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B81" s="36">
         <v>0.33333333333333331</v>
@@ -75677,18 +75678,18 @@
         <v>1095</v>
       </c>
       <c r="D81" s="35" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E81" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F81" s="35" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="35" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B82" s="36">
         <v>0.33333333333333331</v>
@@ -75697,18 +75698,18 @@
         <v>1096</v>
       </c>
       <c r="D82" s="35" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E82" s="35" t="s">
+        <v>337</v>
+      </c>
+      <c r="F82" s="35" t="s">
         <v>338</v>
-      </c>
-      <c r="F82" s="35" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="35" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B83" s="36">
         <v>0.33333333333333331</v>
@@ -75717,18 +75718,18 @@
         <v>1097</v>
       </c>
       <c r="D83" s="35" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E83" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F83" s="35" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="35" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B84" s="36">
         <v>0.33333333333333331</v>
@@ -75737,18 +75738,18 @@
         <v>1098</v>
       </c>
       <c r="D84" s="35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E84" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F84" s="35" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="35" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B85" s="36">
         <v>0.33333333333333331</v>
@@ -75757,18 +75758,18 @@
         <v>1099</v>
       </c>
       <c r="D85" s="35" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E85" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F85" s="35" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="35" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B86" s="36">
         <v>0.33333333333333331</v>
@@ -75777,18 +75778,18 @@
         <v>1100</v>
       </c>
       <c r="D86" s="35" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E86" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F86" s="35" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="35" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B87" s="36">
         <v>0.33333333333333331</v>
@@ -75797,18 +75798,18 @@
         <v>1101</v>
       </c>
       <c r="D87" s="35" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E87" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F87" s="35" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="35" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B88" s="36">
         <v>0.33333333333333331</v>
@@ -75817,18 +75818,18 @@
         <v>1102</v>
       </c>
       <c r="D88" s="35" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E88" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F88" s="35" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="35" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B89" s="36">
         <v>0.33333333333333331</v>
@@ -75837,18 +75838,18 @@
         <v>1103</v>
       </c>
       <c r="D89" s="35" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E89" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F89" s="35" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="35" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B90" s="36">
         <v>0.33333333333333331</v>
@@ -75857,18 +75858,18 @@
         <v>1104</v>
       </c>
       <c r="D90" s="35" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E90" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F90" s="35" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="35" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B91" s="36">
         <v>0.33333333333333331</v>
@@ -75877,18 +75878,18 @@
         <v>1105</v>
       </c>
       <c r="D91" s="35" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E91" s="35" t="s">
+        <v>337</v>
+      </c>
+      <c r="F91" s="35" t="s">
         <v>338</v>
-      </c>
-      <c r="F91" s="35" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="35" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B92" s="36">
         <v>0.33333333333333331</v>
@@ -75897,18 +75898,18 @@
         <v>1106</v>
       </c>
       <c r="D92" s="35" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E92" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F92" s="35" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="35" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B93" s="36">
         <v>0.33333333333333331</v>
@@ -75917,18 +75918,18 @@
         <v>1107</v>
       </c>
       <c r="D93" s="35" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E93" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F93" s="35" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="35" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B94" s="36">
         <v>0.33333333333333331</v>
@@ -75937,18 +75938,18 @@
         <v>1108</v>
       </c>
       <c r="D94" s="35" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E94" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F94" s="35" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="35" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B95" s="36">
         <v>0.33333333333333331</v>
@@ -75957,18 +75958,18 @@
         <v>1109</v>
       </c>
       <c r="D95" s="35" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E95" s="35" t="s">
+        <v>337</v>
+      </c>
+      <c r="F95" s="35" t="s">
         <v>338</v>
-      </c>
-      <c r="F95" s="35" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="35" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B96" s="36">
         <v>0.33333333333333331</v>
@@ -75977,18 +75978,18 @@
         <v>1110</v>
       </c>
       <c r="D96" s="35" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E96" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F96" s="35" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="35" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B97" s="36">
         <v>0.33333333333333331</v>
@@ -75997,18 +75998,18 @@
         <v>1111</v>
       </c>
       <c r="D97" s="35" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E97" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F97" s="35" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="35" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B98" s="36">
         <v>0.33333333333333331</v>
@@ -76017,18 +76018,18 @@
         <v>1112</v>
       </c>
       <c r="D98" s="35" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E98" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F98" s="35" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="35" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B99" s="36">
         <v>0.33333333333333331</v>
@@ -76037,18 +76038,18 @@
         <v>1113</v>
       </c>
       <c r="D99" s="35" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E99" s="35" t="s">
+        <v>337</v>
+      </c>
+      <c r="F99" s="35" t="s">
         <v>338</v>
-      </c>
-      <c r="F99" s="35" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="35" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B100" s="36">
         <v>0.33333333333333331</v>
@@ -76057,18 +76058,18 @@
         <v>1114</v>
       </c>
       <c r="D100" s="35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E100" s="35" t="s">
+        <v>337</v>
+      </c>
+      <c r="F100" s="35" t="s">
         <v>338</v>
-      </c>
-      <c r="F100" s="35" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="35" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B101" s="36">
         <v>0.33333333333333331</v>
@@ -76077,18 +76078,18 @@
         <v>1115</v>
       </c>
       <c r="D101" s="35" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E101" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F101" s="35" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="35" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B102" s="36">
         <v>0.33333333333333331</v>
@@ -76097,18 +76098,18 @@
         <v>1116</v>
       </c>
       <c r="D102" s="35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E102" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F102" s="35" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="35" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B103" s="36">
         <v>0.33333333333333331</v>
@@ -76117,18 +76118,18 @@
         <v>1117</v>
       </c>
       <c r="D103" s="35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E103" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F103" s="35" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="35" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B104" s="36">
         <v>0.33333333333333331</v>
@@ -76137,18 +76138,18 @@
         <v>1118</v>
       </c>
       <c r="D104" s="35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E104" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F104" s="35" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="35" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B105" s="36">
         <v>0.33333333333333331</v>
@@ -76157,18 +76158,18 @@
         <v>1119</v>
       </c>
       <c r="D105" s="35" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E105" s="35" t="s">
+        <v>337</v>
+      </c>
+      <c r="F105" s="35" t="s">
         <v>338</v>
-      </c>
-      <c r="F105" s="35" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="35" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B106" s="36">
         <v>0.33333333333333331</v>
@@ -76177,18 +76178,18 @@
         <v>1120</v>
       </c>
       <c r="D106" s="35" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E106" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F106" s="35" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="35" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B107" s="36">
         <v>0.33333333333333331</v>
@@ -76197,18 +76198,18 @@
         <v>1121</v>
       </c>
       <c r="D107" s="35" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E107" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F107" s="35" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="35" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B108" s="36">
         <v>0.33333333333333331</v>
@@ -76217,18 +76218,18 @@
         <v>1123</v>
       </c>
       <c r="D108" s="35" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E108" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F108" s="35" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="35" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B109" s="36">
         <v>0.33333333333333331</v>
@@ -76237,18 +76238,18 @@
         <v>1124</v>
       </c>
       <c r="D109" s="35" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E109" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F109" s="35" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="35" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B110" s="36">
         <v>0.33333333333333331</v>
@@ -76257,18 +76258,18 @@
         <v>1125</v>
       </c>
       <c r="D110" s="35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E110" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F110" s="35" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="35" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B111" s="36">
         <v>0.33333333333333331</v>
@@ -76277,18 +76278,18 @@
         <v>1126</v>
       </c>
       <c r="D111" s="35" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E111" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F111" s="35" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="35" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B112" s="36">
         <v>0.33333333333333331</v>
@@ -76297,18 +76298,18 @@
         <v>1127</v>
       </c>
       <c r="D112" s="35" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E112" s="35" t="s">
+        <v>337</v>
+      </c>
+      <c r="F112" s="35" t="s">
         <v>338</v>
-      </c>
-      <c r="F112" s="35" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="35" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B113" s="36">
         <v>0.33333333333333331</v>
@@ -76317,18 +76318,18 @@
         <v>1128</v>
       </c>
       <c r="D113" s="35" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E113" s="35" t="s">
+        <v>337</v>
+      </c>
+      <c r="F113" s="35" t="s">
         <v>338</v>
-      </c>
-      <c r="F113" s="35" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="35" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B114" s="36">
         <v>0.33333333333333331</v>
@@ -76337,18 +76338,18 @@
         <v>1129</v>
       </c>
       <c r="D114" s="35" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E114" s="35" t="s">
+        <v>337</v>
+      </c>
+      <c r="F114" s="35" t="s">
         <v>338</v>
-      </c>
-      <c r="F114" s="35" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="35" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B115" s="36">
         <v>0.33333333333333331</v>
@@ -76357,18 +76358,18 @@
         <v>1130</v>
       </c>
       <c r="D115" s="35" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E115" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F115" s="35" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="35" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B116" s="36">
         <v>0.33333333333333331</v>
@@ -76377,18 +76378,18 @@
         <v>1131</v>
       </c>
       <c r="D116" s="35" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E116" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F116" s="35" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B117" s="36">
         <v>0.33333333333333331</v>
@@ -76397,18 +76398,18 @@
         <v>1132</v>
       </c>
       <c r="D117" s="35" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E117" s="35" t="s">
+        <v>337</v>
+      </c>
+      <c r="F117" s="35" t="s">
         <v>338</v>
-      </c>
-      <c r="F117" s="35" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B118" s="36">
         <v>0.33333333333333331</v>
@@ -76417,18 +76418,18 @@
         <v>1133</v>
       </c>
       <c r="D118" s="35" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E118" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F118" s="35" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B119" s="36">
         <v>0.33333333333333331</v>
@@ -76437,18 +76438,18 @@
         <v>1134</v>
       </c>
       <c r="D119" s="35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E119" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F119" s="35" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B120" s="36">
         <v>0.33333333333333331</v>
@@ -76457,18 +76458,18 @@
         <v>1135</v>
       </c>
       <c r="D120" s="35" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E120" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F120" s="35" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B121" s="36">
         <v>0.33333333333333331</v>
@@ -76477,18 +76478,18 @@
         <v>1136</v>
       </c>
       <c r="D121" s="35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E121" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F121" s="35" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="35" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B122" s="36">
         <v>0.33333333333333331</v>
@@ -76497,18 +76498,18 @@
         <v>2001</v>
       </c>
       <c r="D122" s="35" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E122" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F122" s="35" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="35" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B123" s="36">
         <v>0.33333333333333331</v>
@@ -76517,18 +76518,18 @@
         <v>2002</v>
       </c>
       <c r="D123" s="35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E123" s="35" t="s">
+        <v>337</v>
+      </c>
+      <c r="F123" s="35" t="s">
         <v>338</v>
-      </c>
-      <c r="F123" s="35" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="35" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B124" s="36">
         <v>0.33333333333333331</v>
@@ -76537,18 +76538,18 @@
         <v>2003</v>
       </c>
       <c r="D124" s="35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E124" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F124" s="35" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="35" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B125" s="36">
         <v>0.33333333333333331</v>
@@ -76557,18 +76558,18 @@
         <v>2004</v>
       </c>
       <c r="D125" s="35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E125" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F125" s="35" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="35" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B126" s="36">
         <v>0.25</v>
@@ -76577,18 +76578,18 @@
         <v>2005</v>
       </c>
       <c r="D126" s="35" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E126" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F126" s="35" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="35" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B127" s="36">
         <v>0.33333333333333331</v>
@@ -76597,18 +76598,18 @@
         <v>2006</v>
       </c>
       <c r="D127" s="35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E127" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F127" s="35" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="35" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B128" s="36">
         <v>0.33333333333333331</v>
@@ -76617,18 +76618,18 @@
         <v>2007</v>
       </c>
       <c r="D128" s="35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E128" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F128" s="35" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="35" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B129" s="36">
         <v>0.33333333333333331</v>
@@ -76637,18 +76638,18 @@
         <v>2008</v>
       </c>
       <c r="D129" s="35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E129" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F129" s="35" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="35" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B130" s="36">
         <v>0.33333333333333331</v>
@@ -76657,18 +76658,18 @@
         <v>2009</v>
       </c>
       <c r="D130" s="35" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E130" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F130" s="35" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="35" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B131" s="36">
         <v>0.33333333333333331</v>
@@ -76677,18 +76678,18 @@
         <v>2010</v>
       </c>
       <c r="D131" s="35" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E131" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F131" s="35" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="35" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B132" s="36">
         <v>0.27083333333333331</v>
@@ -76697,18 +76698,18 @@
         <v>2011</v>
       </c>
       <c r="D132" s="35" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E132" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F132" s="35" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="35" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B133" s="36">
         <v>0.33333333333333331</v>
@@ -76717,18 +76718,18 @@
         <v>2012</v>
       </c>
       <c r="D133" s="35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E133" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F133" s="35" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="35" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B134" s="36">
         <v>0.33333333333333331</v>
@@ -76737,18 +76738,18 @@
         <v>2014</v>
       </c>
       <c r="D134" s="35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E134" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F134" s="35" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="35" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B135" s="36">
         <v>0.33333333333333331</v>
@@ -76757,18 +76758,18 @@
         <v>2015</v>
       </c>
       <c r="D135" s="35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E135" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F135" s="35" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="35" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B136" s="36">
         <v>0.33333333333333331</v>
@@ -76777,18 +76778,18 @@
         <v>2016</v>
       </c>
       <c r="D136" s="35" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E136" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F136" s="35" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="35" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B137" s="36">
         <v>0.33333333333333331</v>
@@ -76797,18 +76798,18 @@
         <v>2017</v>
       </c>
       <c r="D137" s="35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E137" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F137" s="35" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="35" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B138" s="36">
         <v>0.33333333333333331</v>
@@ -76817,18 +76818,18 @@
         <v>2018</v>
       </c>
       <c r="D138" s="35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E138" s="35" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F138" s="35" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="35" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B139" s="36">
         <v>0.33333333333333331</v>
@@ -76837,18 +76838,18 @@
         <v>2019</v>
       </c>
       <c r="D139" s="35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E139" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F139" s="35" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="35" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B140" s="36">
         <v>0.33333333333333331</v>
@@ -76857,18 +76858,18 @@
         <v>2020</v>
       </c>
       <c r="D140" s="35" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E140" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F140" s="35" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="35" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B141" s="36">
         <v>0.33333333333333331</v>
@@ -76877,18 +76878,18 @@
         <v>2021</v>
       </c>
       <c r="D141" s="35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E141" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F141" s="35" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="35" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B142" s="36">
         <v>0.33333333333333331</v>
@@ -76897,18 +76898,18 @@
         <v>2022</v>
       </c>
       <c r="D142" s="35" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E142" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F142" s="35" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="35" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B143" s="36">
         <v>0.33333333333333331</v>
@@ -76917,18 +76918,18 @@
         <v>2023</v>
       </c>
       <c r="D143" s="35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E143" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F143" s="35" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="35" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B144" s="36">
         <v>0.33333333333333331</v>
@@ -76937,18 +76938,18 @@
         <v>2024</v>
       </c>
       <c r="D144" s="35" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E144" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F144" s="35" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="35" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B145" s="36">
         <v>0.33333333333333331</v>
@@ -76957,18 +76958,18 @@
         <v>2030</v>
       </c>
       <c r="D145" s="35" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E145" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F145" s="35" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="35" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B146" s="36">
         <v>0.33333333333333331</v>
@@ -76977,18 +76978,18 @@
         <v>2031</v>
       </c>
       <c r="D146" s="35" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E146" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F146" s="35" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="35" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B147" s="36">
         <v>0.33333333333333331</v>
@@ -76997,18 +76998,18 @@
         <v>2032</v>
       </c>
       <c r="D147" s="35" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E147" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F147" s="35" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="35" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B148" s="36">
         <v>0.33333333333333331</v>
@@ -77017,18 +77018,18 @@
         <v>2033</v>
       </c>
       <c r="D148" s="35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E148" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F148" s="35" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="35" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B149" s="36">
         <v>0.33333333333333331</v>
@@ -77037,18 +77038,18 @@
         <v>2034</v>
       </c>
       <c r="D149" s="35" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E149" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F149" s="35" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="35" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B150" s="36">
         <v>0.33333333333333331</v>
@@ -77057,18 +77058,18 @@
         <v>2035</v>
       </c>
       <c r="D150" s="35" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E150" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F150" s="35" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="35" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B151" s="36">
         <v>0.33333333333333331</v>
@@ -77077,18 +77078,18 @@
         <v>2036</v>
       </c>
       <c r="D151" s="35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E151" s="35" t="s">
+        <v>337</v>
+      </c>
+      <c r="F151" s="35" t="s">
         <v>338</v>
-      </c>
-      <c r="F151" s="35" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="35" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B152" s="36">
         <v>0.33333333333333331</v>
@@ -77097,18 +77098,18 @@
         <v>2037</v>
       </c>
       <c r="D152" s="35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E152" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F152" s="35" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="35" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B153" s="36">
         <v>0.33333333333333331</v>
@@ -77117,18 +77118,18 @@
         <v>2038</v>
       </c>
       <c r="D153" s="35" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E153" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F153" s="35" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="35" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B154" s="36">
         <v>0.33333333333333331</v>
@@ -77137,18 +77138,18 @@
         <v>2039</v>
       </c>
       <c r="D154" s="35" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E154" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F154" s="35" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="35" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B155" s="36">
         <v>0.33333333333333331</v>
@@ -77157,18 +77158,18 @@
         <v>2040</v>
       </c>
       <c r="D155" s="35" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E155" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F155" s="35" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="35" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B156" s="36">
         <v>0.33333333333333331</v>
@@ -77177,18 +77178,18 @@
         <v>2041</v>
       </c>
       <c r="D156" s="35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E156" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F156" s="35" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="35" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B157" s="36">
         <v>0.33333333333333331</v>
@@ -77197,18 +77198,18 @@
         <v>2042</v>
       </c>
       <c r="D157" s="35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E157" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F157" s="35" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="35" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B158" s="36">
         <v>0.33333333333333331</v>
@@ -77217,18 +77218,18 @@
         <v>2043</v>
       </c>
       <c r="D158" s="35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E158" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F158" s="35" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="35" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B159" s="36">
         <v>0.33333333333333331</v>
@@ -77237,18 +77238,18 @@
         <v>2044</v>
       </c>
       <c r="D159" s="35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E159" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F159" s="35" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="35" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B160" s="36">
         <v>0.33333333333333331</v>
@@ -77257,18 +77258,18 @@
         <v>2045</v>
       </c>
       <c r="D160" s="35" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E160" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F160" s="35" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="35" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B161" s="36">
         <v>0.33333333333333331</v>
@@ -77277,18 +77278,18 @@
         <v>2046</v>
       </c>
       <c r="D161" s="35" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E161" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F161" s="35" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="35" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B162" s="36">
         <v>0.33333333333333331</v>
@@ -77297,18 +77298,18 @@
         <v>2049</v>
       </c>
       <c r="D162" s="35" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E162" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F162" s="35" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="35" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B163" s="36">
         <v>0.33333333333333331</v>
@@ -77317,133 +77318,133 @@
         <v>2050</v>
       </c>
       <c r="D163" s="35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E163" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F163" s="35" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="35" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="35" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="35" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="35" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="35" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="35" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="35" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="35" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="35" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="35" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="35" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" s="35" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" s="35" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" s="35" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" s="35" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" s="35" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" s="35" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" s="35" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" s="35" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" s="35" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" s="35" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" s="35" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -77646,30 +77647,30 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="33" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>380</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>381</v>
-      </c>
       <c r="E1" s="39" t="s">
+        <v>364</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>376</v>
+      </c>
+      <c r="G1" s="39" t="s">
         <v>365</v>
       </c>
-      <c r="F1" s="40" t="s">
-        <v>377</v>
-      </c>
-      <c r="G1" s="39" t="s">
+      <c r="H1" s="40" t="s">
         <v>366</v>
-      </c>
-      <c r="H1" s="40" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="33" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B2" s="3">
         <v>4230000</v>
@@ -77678,7 +77679,7 @@
         <v>4230000</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F2" s="3">
         <v>1949000</v>
@@ -77692,7 +77693,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="33" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B3" s="14">
         <f>_xlfn.XLOOKUP($B$2,$F$2:$F$8,$G$2:$G$8,G8,1,1)</f>
@@ -77703,7 +77704,7 @@
         <v>0.1</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F3" s="3">
         <v>3299000</v>
@@ -77717,7 +77718,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="33" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B4" s="3">
         <f>_xlfn.XLOOKUP($B$2,$F$2:$F$8,$H$2:$H$8,H8,1,1)</f>
@@ -77728,7 +77729,7 @@
         <v>97500</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F4" s="3">
         <v>6949000</v>
@@ -77742,7 +77743,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="33" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B5" s="3">
         <f>B2*B3-B4</f>
@@ -77753,7 +77754,7 @@
         <v>325500</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F5" s="3">
         <v>8999000</v>
@@ -77767,7 +77768,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="E6" s="14" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F6" s="3">
         <v>17999000</v>
@@ -77781,7 +77782,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="E7" s="14" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F7" s="3">
         <v>39999000</v>
@@ -77795,7 +77796,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="E8" s="14" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F8" s="3">
         <v>40000000</v>
@@ -77830,196 +77831,196 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="41" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B1" s="41" t="s">
+        <v>382</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>383</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>384</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="14" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B2" s="14" t="str">
         <f>_xlfn.XLOOKUP(A2,E:E,D:D,,2)</f>
         <v>新潟県</v>
       </c>
       <c r="D2" s="14" t="s">
+        <v>386</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>387</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="14" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B3" s="14" t="str">
         <f>_xlfn.XLOOKUP(A3,E:E,D:D,,2)</f>
         <v>埼玉県</v>
       </c>
       <c r="D3" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>396</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="14" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B4" s="14" t="str">
         <f>_xlfn.XLOOKUP(A4,E:E,D:D,,2)</f>
         <v>東京都新宿区</v>
       </c>
       <c r="D4" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="E4" s="14" t="s">
         <v>390</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="14" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B5" s="14" t="str">
         <f>_xlfn.XLOOKUP(A5,E:E,D:D,,2)</f>
         <v>三重県桑名市</v>
       </c>
       <c r="D5" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="E5" s="14" t="s">
         <v>393</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="D6" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="E6" s="14" t="s">
         <v>398</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="D7" s="14" t="s">
+        <v>399</v>
+      </c>
+      <c r="E7" s="14" t="s">
         <v>400</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="D8" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="E8" s="14" t="s">
         <v>402</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="D9" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="E9" s="14" t="s">
         <v>404</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="D10" s="14" t="s">
+        <v>405</v>
+      </c>
+      <c r="E10" s="14" t="s">
         <v>406</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="D11" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="E11" s="14" t="s">
         <v>408</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="D12" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="E12" s="14" t="s">
         <v>410</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="D13" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="E13" s="14" t="s">
         <v>412</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="D14" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="E14" s="14" t="s">
         <v>414</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="D15" s="14" t="s">
+        <v>415</v>
+      </c>
+      <c r="E15" s="14" t="s">
         <v>416</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="D16" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="E16" s="14" t="s">
         <v>418</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="17" spans="4:5">
       <c r="D17" s="14" t="s">
+        <v>419</v>
+      </c>
+      <c r="E17" s="14" t="s">
         <v>420</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="18" spans="4:5">
       <c r="D18" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="E18" s="14" t="s">
         <v>422</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="19" spans="4:5">
       <c r="D19" s="14" t="s">
+        <v>423</v>
+      </c>
+      <c r="E19" s="14" t="s">
         <v>424</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="20" spans="4:5">
       <c r="D20" s="14" t="s">
+        <v>425</v>
+      </c>
+      <c r="E20" s="14" t="s">
         <v>426</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>427</v>
       </c>
     </row>
   </sheetData>
@@ -78044,33 +78045,33 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="44" t="s">
+        <v>432</v>
+      </c>
+      <c r="B1" s="44" t="s">
         <v>433</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="C1" s="44" t="s">
         <v>434</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="D1" s="45" t="s">
         <v>435</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="E1" s="45" t="s">
         <v>436</v>
       </c>
-      <c r="E1" s="45" t="s">
-        <v>437</v>
-      </c>
       <c r="G1" s="44" t="s">
+        <v>432</v>
+      </c>
+      <c r="H1" s="44" t="s">
         <v>433</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="I1" s="44" t="s">
         <v>434</v>
-      </c>
-      <c r="I1" s="44" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="14" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B2" s="14">
         <v>200</v>
@@ -78087,7 +78088,7 @@
         <v>7500</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H2" s="14">
         <v>200</v>
@@ -78115,7 +78116,7 @@
         <v>16000</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H3" s="14">
         <v>300</v>
@@ -78126,7 +78127,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="14" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B4" s="14">
         <v>400</v>
@@ -78143,7 +78144,7 @@
         <v>29400</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H4" s="14">
         <v>400</v>
@@ -78187,7 +78188,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="G8" s="14" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H8" s="14">
         <v>200</v>
@@ -78198,7 +78199,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="G9" s="14" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H9" s="14">
         <v>300</v>
@@ -78209,7 +78210,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="G10" s="14" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H10" s="14">
         <v>400</v>
@@ -78928,16 +78929,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="F18:G18"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -79387,27 +79388,27 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="41" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C1" s="46" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D1" s="41" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E1" s="41" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="47" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C2" s="9">
         <v>10000</v>
@@ -79417,15 +79418,15 @@
         <v>1</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="14" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C3" s="9">
         <v>10000</v>
@@ -79435,15 +79436,15 @@
         <v>0</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="47" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C4" s="3">
         <v>5000</v>
@@ -79453,15 +79454,15 @@
         <v>0</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="47" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C5" s="9">
         <v>10000</v>
@@ -79471,15 +79472,15 @@
         <v>0</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="47" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C6" s="3">
         <v>5000</v>
@@ -79489,15 +79490,15 @@
         <v>0</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="14" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C7" s="3">
         <v>5000</v>
@@ -79507,15 +79508,15 @@
         <v>0</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="14" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C8" s="9">
         <v>10000</v>
@@ -79525,15 +79526,15 @@
         <v>0</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="14" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C9" s="3">
         <v>5000</v>
@@ -79543,7 +79544,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
   </sheetData>
@@ -79570,30 +79571,30 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="41" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C1" s="46" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D1" s="41" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E1" s="41" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F1" s="41" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="47" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C2" s="9">
         <v>10000</v>
@@ -79607,15 +79608,15 @@
         <v>10</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="14" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C3" s="9">
         <v>10000</v>
@@ -79629,15 +79630,15 @@
         <v>1</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="47" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C4" s="3">
         <v>5000</v>
@@ -79651,15 +79652,15 @@
         <v>1</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="47" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C5" s="9">
         <v>10000</v>
@@ -79673,15 +79674,15 @@
         <v>1</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="47" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C6" s="3">
         <v>5000</v>
@@ -79695,15 +79696,15 @@
         <v>1</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="14" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C7" s="3">
         <v>5000</v>
@@ -79717,15 +79718,15 @@
         <v>1</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="14" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C8" s="9">
         <v>10000</v>
@@ -79739,15 +79740,15 @@
         <v>1</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="14" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C9" s="3">
         <v>5000</v>
@@ -79761,7 +79762,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
   </sheetData>
@@ -79789,33 +79790,33 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="41" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C1" s="46" t="s">
+        <v>445</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>447</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>456</v>
+      </c>
+      <c r="F1" s="46" t="s">
         <v>446</v>
       </c>
-      <c r="D1" s="41" t="s">
-        <v>448</v>
-      </c>
-      <c r="E1" s="41" t="s">
-        <v>457</v>
-      </c>
-      <c r="F1" s="46" t="s">
-        <v>447</v>
-      </c>
       <c r="G1" s="41" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="47" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C2" s="9">
         <v>10000</v>
@@ -79833,15 +79834,15 @@
         <v>1000</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="14" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C3" s="9">
         <v>10000</v>
@@ -79859,15 +79860,15 @@
         <v>100</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="47" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C4" s="3">
         <v>5000</v>
@@ -79885,15 +79886,15 @@
         <v>50</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="47" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C5" s="9">
         <v>10000</v>
@@ -79911,15 +79912,15 @@
         <v>100</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="47" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C6" s="3">
         <v>5000</v>
@@ -79937,15 +79938,15 @@
         <v>50</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="14" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C7" s="3">
         <v>5000</v>
@@ -79963,15 +79964,15 @@
         <v>50</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="14" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C8" s="9">
         <v>10000</v>
@@ -79989,15 +79990,15 @@
         <v>100</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="14" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C9" s="3">
         <v>5000</v>
@@ -80015,7 +80016,7 @@
         <v>50</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
   </sheetData>
